--- a/course02-0000-0987-b5fb-8ea4a25e2e61/src/assets/doc/import_course_sample.xlsx
+++ b/course02-0000-0987-b5fb-8ea4a25e2e61/src/assets/doc/import_course_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\0_course\src\assets\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\進行中\1cmpaus_ite\coregadget\course02-0000-0987-b5fb-8ea4a25e2e61\src\assets\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>課程系統編號</t>
   </si>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>李美玉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>學年度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>學期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,12 +98,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -121,12 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -540,68 +541,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/course02-0000-0987-b5fb-8ea4a25e2e61/src/assets/doc/import_course_sample.xlsx
+++ b/course02-0000-0987-b5fb-8ea4a25e2e61/src/assets/doc/import_course_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\進行中\1cmpaus_ite\coregadget\course02-0000-0987-b5fb-8ea4a25e2e61\src\assets\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\0_course\src\assets\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>課程系統編號</t>
   </si>
@@ -69,14 +69,6 @@
   </si>
   <si>
     <t>李美玉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>學年度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>學期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -98,6 +90,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -123,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -541,87 +540,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>110</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>110</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/course02-0000-0987-b5fb-8ea4a25e2e61/src/assets/doc/import_course_sample.xlsx
+++ b/course02-0000-0987-b5fb-8ea4a25e2e61/src/assets/doc/import_course_sample.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\0_course\src\assets\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\coregadget\course02-0000-0987-b5fb-8ea4a25e2e61\src\assets\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CB9077-FD4F-42E4-9B17-4F38D2FA0AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -47,9 +37,6 @@
     <t>授課教師3</t>
   </si>
   <si>
-    <t>修課班級</t>
-  </si>
-  <si>
     <t>普一甲 國語文I</t>
   </si>
   <si>
@@ -69,13 +56,17 @@
   </si>
   <si>
     <t>李美玉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬班級</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -121,12 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -539,22 +531,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,22 +562,22 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -593,16 +585,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
